--- a/Subjects/subject 17/processed_audio_df.xlsx
+++ b/Subjects/subject 17/processed_audio_df.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -456,7 +456,7 @@
         <v>2.913333333333334</v>
       </c>
       <c r="K2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -487,7 +487,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -497,7 +497,7 @@
         <v>3.34</v>
       </c>
       <c r="K3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -528,7 +528,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -538,7 +538,7 @@
         <v>3.937333333333333</v>
       </c>
       <c r="K4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -569,7 +569,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -579,7 +579,7 @@
         <v>3.852</v>
       </c>
       <c r="K5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -610,7 +610,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -620,7 +620,7 @@
         <v>2.998666666666667</v>
       </c>
       <c r="K6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -651,7 +651,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -661,7 +661,7 @@
         <v>2.657333333333333</v>
       </c>
       <c r="K7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -692,7 +692,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -702,7 +702,7 @@
         <v>2.742666666666667</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -733,7 +733,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -743,7 +743,7 @@
         <v>2.486666666666667</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -784,7 +784,7 @@
         <v>2.742666666666667</v>
       </c>
       <c r="K10" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -815,7 +815,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -825,7 +825,7 @@
         <v>2.401333333333334</v>
       </c>
       <c r="K11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -856,7 +856,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -866,7 +866,7 @@
         <v>2.742666666666667</v>
       </c>
       <c r="K12" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -897,7 +897,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -907,7 +907,7 @@
         <v>2.657333333333333</v>
       </c>
       <c r="K13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -938,7 +938,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -979,7 +979,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1030,7 +1030,7 @@
         <v>3.169333333333333</v>
       </c>
       <c r="K16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1071,7 +1071,7 @@
         <v>3.425333333333333</v>
       </c>
       <c r="K17" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1102,7 +1102,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1112,7 +1112,7 @@
         <v>2.572</v>
       </c>
       <c r="K18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1153,7 +1153,7 @@
         <v>2.828</v>
       </c>
       <c r="K19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1194,7 +1194,7 @@
         <v>2.572</v>
       </c>
       <c r="K20" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1235,7 +1235,7 @@
         <v>2.401333333333334</v>
       </c>
       <c r="K21" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -1276,7 +1276,7 @@
         <v>2.486666666666667</v>
       </c>
       <c r="K22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1317,7 +1317,7 @@
         <v>1.804</v>
       </c>
       <c r="K23" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -1358,7 +1358,7 @@
         <v>2.998666666666667</v>
       </c>
       <c r="K24" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -1399,7 +1399,7 @@
         <v>2.572</v>
       </c>
       <c r="K25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -1440,7 +1440,7 @@
         <v>2.316</v>
       </c>
       <c r="K26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -1481,7 +1481,7 @@
         <v>2.486666666666667</v>
       </c>
       <c r="K27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -1522,7 +1522,7 @@
         <v>2.742666666666667</v>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -1604,7 +1604,7 @@
         <v>2.401333333333334</v>
       </c>
       <c r="K30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -1645,7 +1645,7 @@
         <v>2.230666666666667</v>
       </c>
       <c r="K31" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -1686,7 +1686,7 @@
         <v>2.998666666666667</v>
       </c>
       <c r="K32" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -1727,7 +1727,7 @@
         <v>2.230666666666667</v>
       </c>
       <c r="K33" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -1768,7 +1768,7 @@
         <v>2.572</v>
       </c>
       <c r="K34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1809,7 +1809,7 @@
         <v>2.828</v>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -1840,7 +1840,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -1850,7 +1850,7 @@
         <v>2.316</v>
       </c>
       <c r="K36" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -1891,7 +1891,7 @@
         <v>2.828</v>
       </c>
       <c r="K37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -1973,7 +1973,7 @@
         <v>3.425333333333333</v>
       </c>
       <c r="K39" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -2014,7 +2014,7 @@
         <v>2.828</v>
       </c>
       <c r="K40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -2045,7 +2045,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -2055,7 +2055,7 @@
         <v>2.657333333333333</v>
       </c>
       <c r="K41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -2086,7 +2086,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -2096,7 +2096,7 @@
         <v>3.425333333333333</v>
       </c>
       <c r="K42" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -2137,7 +2137,7 @@
         <v>-0.1586666666666667</v>
       </c>
       <c r="K43" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -2178,7 +2178,7 @@
         <v>2.998666666666667</v>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -2219,7 +2219,7 @@
         <v>2.316</v>
       </c>
       <c r="K45" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -2260,7 +2260,7 @@
         <v>2.998666666666667</v>
       </c>
       <c r="K46" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -2301,7 +2301,7 @@
         <v>2.316</v>
       </c>
       <c r="K47" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -2342,7 +2342,7 @@
         <v>2.998666666666667</v>
       </c>
       <c r="K48" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -2373,7 +2373,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -2383,7 +2383,7 @@
         <v>2.657333333333333</v>
       </c>
       <c r="K49" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -2465,7 +2465,7 @@
         <v>2.742666666666667</v>
       </c>
       <c r="K51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
@@ -2506,7 +2506,7 @@
         <v>2.998666666666667</v>
       </c>
       <c r="K52" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
@@ -2537,7 +2537,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -2547,7 +2547,7 @@
         <v>3.34</v>
       </c>
       <c r="K53" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -2588,7 +2588,7 @@
         <v>2.657333333333333</v>
       </c>
       <c r="K54" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
@@ -2619,7 +2619,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -2629,7 +2629,7 @@
         <v>3.254666666666667</v>
       </c>
       <c r="K55" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
@@ -2670,7 +2670,7 @@
         <v>3.084</v>
       </c>
       <c r="K56" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
@@ -2701,7 +2701,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -2711,7 +2711,7 @@
         <v>2.742666666666667</v>
       </c>
       <c r="K57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -2742,7 +2742,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -2752,7 +2752,7 @@
         <v>2.742666666666667</v>
       </c>
       <c r="K58" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
@@ -2783,7 +2783,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -2793,7 +2793,7 @@
         <v>2.230666666666667</v>
       </c>
       <c r="K59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -2865,7 +2865,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -2875,7 +2875,7 @@
         <v>2.742666666666667</v>
       </c>
       <c r="K61" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -2916,7 +2916,7 @@
         <v>2.486666666666667</v>
       </c>
       <c r="K62" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -2957,7 +2957,7 @@
         <v>2.486666666666667</v>
       </c>
       <c r="K63" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64">
@@ -2998,7 +2998,7 @@
         <v>2.657333333333333</v>
       </c>
       <c r="K64" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -3039,7 +3039,7 @@
         <v>2.401333333333334</v>
       </c>
       <c r="K65" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
@@ -3070,7 +3070,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -3080,7 +3080,7 @@
         <v>2.572</v>
       </c>
       <c r="K66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
@@ -3121,7 +3121,7 @@
         <v>2.828</v>
       </c>
       <c r="K67" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -3162,7 +3162,7 @@
         <v>3.425333333333333</v>
       </c>
       <c r="K68" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -3203,7 +3203,7 @@
         <v>3.34</v>
       </c>
       <c r="K69" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
@@ -3244,7 +3244,7 @@
         <v>2.572</v>
       </c>
       <c r="K70" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -3285,7 +3285,7 @@
         <v>3.169333333333333</v>
       </c>
       <c r="K71" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
@@ -3316,7 +3316,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -3357,7 +3357,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -3367,7 +3367,7 @@
         <v>3.596</v>
       </c>
       <c r="K73" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74">
@@ -3408,7 +3408,7 @@
         <v>4.193333333333333</v>
       </c>
       <c r="K74" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75">
@@ -3439,7 +3439,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -3449,7 +3449,7 @@
         <v>3.852</v>
       </c>
       <c r="K75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -3480,7 +3480,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -3490,7 +3490,7 @@
         <v>3.254666666666667</v>
       </c>
       <c r="K76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3521,7 +3521,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -3531,7 +3531,7 @@
         <v>4.364</v>
       </c>
       <c r="K77" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
@@ -3562,7 +3562,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -3572,7 +3572,7 @@
         <v>3.34</v>
       </c>
       <c r="K78" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -3644,7 +3644,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -3654,7 +3654,7 @@
         <v>3.254666666666667</v>
       </c>
       <c r="K80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -3685,7 +3685,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -3695,7 +3695,7 @@
         <v>4.022666666666667</v>
       </c>
       <c r="K81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 17/processed_audio_df.xlsx
+++ b/Subjects/subject 17/processed_audio_df.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -487,7 +487,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -497,7 +497,7 @@
         <v>3.34</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -528,7 +528,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -538,7 +538,7 @@
         <v>3.937333333333333</v>
       </c>
       <c r="K4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -569,7 +569,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -579,7 +579,7 @@
         <v>3.852</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -610,7 +610,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -620,7 +620,7 @@
         <v>2.998666666666667</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -651,7 +651,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -702,7 +702,7 @@
         <v>2.742666666666667</v>
       </c>
       <c r="K8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -733,7 +733,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -774,7 +774,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -784,7 +784,7 @@
         <v>2.742666666666667</v>
       </c>
       <c r="K10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -815,7 +815,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -825,7 +825,7 @@
         <v>2.401333333333334</v>
       </c>
       <c r="K11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -856,7 +856,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -866,7 +866,7 @@
         <v>2.742666666666667</v>
       </c>
       <c r="K12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -938,7 +938,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -948,7 +948,7 @@
         <v>2.657333333333333</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -979,7 +979,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1030,7 +1030,7 @@
         <v>3.169333333333333</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1071,7 +1071,7 @@
         <v>3.425333333333333</v>
       </c>
       <c r="K17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1112,7 +1112,7 @@
         <v>2.572</v>
       </c>
       <c r="K18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1153,7 +1153,7 @@
         <v>2.828</v>
       </c>
       <c r="K19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1194,7 +1194,7 @@
         <v>2.572</v>
       </c>
       <c r="K20" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1235,7 +1235,7 @@
         <v>2.401333333333334</v>
       </c>
       <c r="K21" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -1317,7 +1317,7 @@
         <v>1.804</v>
       </c>
       <c r="K23" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1358,7 +1358,7 @@
         <v>2.998666666666667</v>
       </c>
       <c r="K24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -1399,7 +1399,7 @@
         <v>2.572</v>
       </c>
       <c r="K25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -1440,7 +1440,7 @@
         <v>2.316</v>
       </c>
       <c r="K26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -1481,7 +1481,7 @@
         <v>2.486666666666667</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -1522,7 +1522,7 @@
         <v>2.742666666666667</v>
       </c>
       <c r="K28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -1563,7 +1563,7 @@
         <v>2.572</v>
       </c>
       <c r="K29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -1604,7 +1604,7 @@
         <v>2.401333333333334</v>
       </c>
       <c r="K30" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -1645,7 +1645,7 @@
         <v>2.230666666666667</v>
       </c>
       <c r="K31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -1686,7 +1686,7 @@
         <v>2.998666666666667</v>
       </c>
       <c r="K32" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -1727,7 +1727,7 @@
         <v>2.230666666666667</v>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -1768,7 +1768,7 @@
         <v>2.572</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -1809,7 +1809,7 @@
         <v>2.828</v>
       </c>
       <c r="K35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -1850,7 +1850,7 @@
         <v>2.316</v>
       </c>
       <c r="K36" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -1891,7 +1891,7 @@
         <v>2.828</v>
       </c>
       <c r="K37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -1932,7 +1932,7 @@
         <v>2.486666666666667</v>
       </c>
       <c r="K38" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -1973,7 +1973,7 @@
         <v>3.425333333333333</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -2014,7 +2014,7 @@
         <v>2.828</v>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -2045,7 +2045,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -2055,7 +2055,7 @@
         <v>2.657333333333333</v>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -2086,7 +2086,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -2137,7 +2137,7 @@
         <v>-0.1586666666666667</v>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -2178,7 +2178,7 @@
         <v>2.998666666666667</v>
       </c>
       <c r="K44" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -2219,7 +2219,7 @@
         <v>2.316</v>
       </c>
       <c r="K45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -2260,7 +2260,7 @@
         <v>2.998666666666667</v>
       </c>
       <c r="K46" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -2301,7 +2301,7 @@
         <v>2.316</v>
       </c>
       <c r="K47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -2342,7 +2342,7 @@
         <v>2.998666666666667</v>
       </c>
       <c r="K48" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
@@ -2373,7 +2373,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -2383,7 +2383,7 @@
         <v>2.657333333333333</v>
       </c>
       <c r="K49" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -2424,7 +2424,7 @@
         <v>2.572</v>
       </c>
       <c r="K50" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -2465,7 +2465,7 @@
         <v>2.742666666666667</v>
       </c>
       <c r="K51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -2506,7 +2506,7 @@
         <v>2.998666666666667</v>
       </c>
       <c r="K52" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
@@ -2537,7 +2537,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -2547,7 +2547,7 @@
         <v>3.34</v>
       </c>
       <c r="K53" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
@@ -2588,7 +2588,7 @@
         <v>2.657333333333333</v>
       </c>
       <c r="K54" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
@@ -2629,7 +2629,7 @@
         <v>3.254666666666667</v>
       </c>
       <c r="K55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -2670,7 +2670,7 @@
         <v>3.084</v>
       </c>
       <c r="K56" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2701,7 +2701,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -2711,7 +2711,7 @@
         <v>2.742666666666667</v>
       </c>
       <c r="K57" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
@@ -2742,7 +2742,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -2752,7 +2752,7 @@
         <v>2.742666666666667</v>
       </c>
       <c r="K58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
@@ -2783,7 +2783,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -2793,7 +2793,7 @@
         <v>2.230666666666667</v>
       </c>
       <c r="K59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -2834,7 +2834,7 @@
         <v>2.572</v>
       </c>
       <c r="K60" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
@@ -2865,7 +2865,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -2875,7 +2875,7 @@
         <v>2.742666666666667</v>
       </c>
       <c r="K61" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -2916,7 +2916,7 @@
         <v>2.486666666666667</v>
       </c>
       <c r="K62" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -2957,7 +2957,7 @@
         <v>2.486666666666667</v>
       </c>
       <c r="K63" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
@@ -2988,7 +2988,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -2998,7 +2998,7 @@
         <v>2.657333333333333</v>
       </c>
       <c r="K64" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -3039,7 +3039,7 @@
         <v>2.401333333333334</v>
       </c>
       <c r="K65" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66">
@@ -3070,7 +3070,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -3080,7 +3080,7 @@
         <v>2.572</v>
       </c>
       <c r="K66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67">
@@ -3162,7 +3162,7 @@
         <v>3.425333333333333</v>
       </c>
       <c r="K68" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -3203,7 +3203,7 @@
         <v>3.34</v>
       </c>
       <c r="K69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -3234,7 +3234,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -3285,7 +3285,7 @@
         <v>3.169333333333333</v>
       </c>
       <c r="K71" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -3316,7 +3316,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -3326,7 +3326,7 @@
         <v>2.828</v>
       </c>
       <c r="K72" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -3357,7 +3357,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -3367,7 +3367,7 @@
         <v>3.596</v>
       </c>
       <c r="K73" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -3408,7 +3408,7 @@
         <v>4.193333333333333</v>
       </c>
       <c r="K74" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75">
@@ -3439,7 +3439,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -3449,7 +3449,7 @@
         <v>3.852</v>
       </c>
       <c r="K75" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76">
@@ -3480,7 +3480,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -3490,7 +3490,7 @@
         <v>3.254666666666667</v>
       </c>
       <c r="K76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -3521,7 +3521,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -3531,7 +3531,7 @@
         <v>4.364</v>
       </c>
       <c r="K77" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
@@ -3562,7 +3562,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -3572,7 +3572,7 @@
         <v>3.34</v>
       </c>
       <c r="K78" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -3613,7 +3613,7 @@
         <v>4.193333333333333</v>
       </c>
       <c r="K79" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80">
@@ -3654,7 +3654,7 @@
         <v>3.254666666666667</v>
       </c>
       <c r="K80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
@@ -3685,7 +3685,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="I81" t="n">
